--- a/DSI/Python/Assignment_2/excel.xlsx
+++ b/DSI/Python/Assignment_2/excel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekadw\Documents\GitHub\Battlefield\DSI\Python\Assignment_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekadw\Documents\Data_Science_Institute\Python Intro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72C27BCD-3C7F-4EAE-9177-5C5000BA160B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E8E10DB-9A0A-4958-B426-80A41452C42A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13620" xr2:uid="{0109A1C4-0D0F-4B1A-8CD6-83A2E26FA984}"/>
   </bookViews>
